--- a/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions and Evaporation.xlsx
+++ b/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions and Evaporation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\JianCode\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9C29B-42FC-43EE-83ED-53E232889F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB40E5-547E-49A8-9FE8-870B72F4CC39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="14" r:id="rId1"/>
@@ -9143,7 +9143,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{54F83523-112C-4D96-9BA5-1364D6D19D8B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9154,7 +9154,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{11B20905-5AD1-46D3-BB6C-D0E37E3469F5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9165,7 +9165,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="12991042" cy="9419167"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10588,7 +10588,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659906" cy="6284259"/>
+    <xdr:ext cx="12987618" cy="9424147"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10621,12 +10621,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.24313</cdr:x>
-      <cdr:y>0.50363</cdr:y>
+      <cdr:x>0.20862</cdr:x>
+      <cdr:y>0.4965</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.34151</cdr:x>
-      <cdr:y>0.56489</cdr:y>
+      <cdr:x>0.307</cdr:x>
+      <cdr:y>0.55776</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10641,8 +10641,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1999020" y="2348668"/>
-          <a:ext cx="808877" cy="285682"/>
+          <a:off x="2709445" y="4679048"/>
+          <a:ext cx="1277721" cy="577323"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10796,7 +10796,7 @@
       <cdr:y>0.21536</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.4671</cdr:x>
+      <cdr:x>0.58067</cdr:x>
       <cdr:y>0.27662</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -10812,8 +10812,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1990377" y="1004318"/>
-          <a:ext cx="1850103" cy="285682"/>
+          <a:off x="3144043" y="2029584"/>
+          <a:ext cx="4397516" cy="577324"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10933,8 +10933,13 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Actual CRSP Reservoir Evaporation</a:t>
+            <a:t>R</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>eported in USBR Consumptive Use and Loss Reports</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US" sz="1200" b="1"/>
@@ -10944,12 +10949,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33972</cdr:x>
-      <cdr:y>0.27019</cdr:y>
+      <cdr:x>0.34835</cdr:x>
+      <cdr:y>0.25354</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36123</cdr:x>
-      <cdr:y>0.34663</cdr:y>
+      <cdr:x>0.36986</cdr:x>
+      <cdr:y>0.32998</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -10964,8 +10969,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2793188" y="1260036"/>
-          <a:ext cx="176854" cy="356473"/>
+          <a:off x="4524213" y="2389428"/>
+          <a:ext cx="279363" cy="720382"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -12114,15 +12119,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
@@ -12130,7 +12135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
@@ -12138,28 +12143,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
@@ -12168,7 +12173,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>46</v>
       </c>
@@ -12176,7 +12181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>109</v>
       </c>
@@ -12184,7 +12189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>117</v>
       </c>
@@ -12192,7 +12197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>101</v>
       </c>
@@ -12200,7 +12205,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>102</v>
       </c>
@@ -12208,7 +12213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>112</v>
       </c>
@@ -12216,7 +12221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>114</v>
       </c>
@@ -12224,7 +12229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -12238,7 +12243,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -12252,7 +12257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
@@ -12266,7 +12271,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -12280,7 +12285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -12292,7 +12297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -12306,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>21</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -12334,7 +12339,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>61</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -12362,7 +12367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>87</v>
       </c>
@@ -12376,7 +12381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>88</v>
       </c>
@@ -12390,7 +12395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -12430,22 +12435,22 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -12462,7 +12467,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
         <v>72</v>
       </c>
@@ -12476,7 +12481,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1983</v>
       </c>
@@ -12496,7 +12501,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1984</v>
       </c>
@@ -12513,7 +12518,7 @@
         <v>4096.1428571428569</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1985</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1986</v>
       </c>
@@ -12560,7 +12565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1987</v>
       </c>
@@ -12586,7 +12591,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1988</v>
       </c>
@@ -12612,7 +12617,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1989</v>
       </c>
@@ -12638,7 +12643,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1990</v>
       </c>
@@ -12667,7 +12672,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1991</v>
       </c>
@@ -12693,7 +12698,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1992</v>
       </c>
@@ -12719,7 +12724,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1993</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1994</v>
       </c>
@@ -12762,7 +12767,7 @@
         <v>4850.2000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1995</v>
       </c>
@@ -12779,7 +12784,7 @@
         <v>4908.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1996</v>
       </c>
@@ -12796,7 +12801,7 @@
         <v>4965.8000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1997</v>
       </c>
@@ -12813,7 +12818,7 @@
         <v>5023.6000000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1998</v>
       </c>
@@ -12833,7 +12838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1999</v>
       </c>
@@ -12850,7 +12855,7 @@
         <v>5139.2000000000016</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -12870,7 +12875,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
@@ -12887,7 +12892,7 @@
         <v>5216.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -12904,7 +12909,7 @@
         <v>5235.6000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2003</v>
       </c>
@@ -12921,7 +12926,7 @@
         <v>5254.9000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2004</v>
       </c>
@@ -12938,7 +12943,7 @@
         <v>5274.2000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -12955,7 +12960,7 @@
         <v>5293.5000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -12972,7 +12977,7 @@
         <v>5312.8000000000011</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2007</v>
       </c>
@@ -12989,7 +12994,7 @@
         <v>5332.1000000000013</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2008</v>
       </c>
@@ -13006,7 +13011,7 @@
         <v>5351.4000000000015</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2009</v>
       </c>
@@ -13023,7 +13028,7 @@
         <v>5370.7000000000016</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2010</v>
       </c>
@@ -13043,7 +13048,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2011</v>
       </c>
@@ -13060,7 +13065,7 @@
         <v>5403.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2012</v>
       </c>
@@ -13077,7 +13082,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2013</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>5430.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2014</v>
       </c>
@@ -13111,7 +13116,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2015</v>
       </c>
@@ -13128,7 +13133,7 @@
         <v>5457.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2016</v>
       </c>
@@ -13145,7 +13150,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -13162,7 +13167,7 @@
         <v>5484.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2018</v>
       </c>
@@ -13179,7 +13184,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -13196,7 +13201,7 @@
         <v>5511.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2020</v>
       </c>
@@ -13216,7 +13221,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2021</v>
       </c>
@@ -13233,7 +13238,7 @@
         <v>5534.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -13250,7 +13255,7 @@
         <v>5543.7999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2023</v>
       </c>
@@ -13267,7 +13272,7 @@
         <v>5553.1999999999989</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2024</v>
       </c>
@@ -13284,7 +13289,7 @@
         <v>5562.5999999999985</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2025</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>5571.9999999999982</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2026</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>5581.3999999999978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2027</v>
       </c>
@@ -13335,7 +13340,7 @@
         <v>5590.7999999999975</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2028</v>
       </c>
@@ -13352,7 +13357,7 @@
         <v>5600.1999999999971</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2029</v>
       </c>
@@ -13369,7 +13374,7 @@
         <v>5609.5999999999967</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2030</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2031</v>
       </c>
@@ -13406,7 +13411,7 @@
         <v>5637.1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2032</v>
       </c>
@@ -13423,7 +13428,7 @@
         <v>5655.2000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2033</v>
       </c>
@@ -13440,7 +13445,7 @@
         <v>5673.3000000000011</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2034</v>
       </c>
@@ -13457,7 +13462,7 @@
         <v>5691.4000000000015</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2035</v>
       </c>
@@ -13474,7 +13479,7 @@
         <v>5709.5000000000018</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2036</v>
       </c>
@@ -13491,7 +13496,7 @@
         <v>5727.6000000000022</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2037</v>
       </c>
@@ -13508,7 +13513,7 @@
         <v>5745.7000000000025</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2038</v>
       </c>
@@ -13525,7 +13530,7 @@
         <v>5763.8000000000029</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2039</v>
       </c>
@@ -13542,7 +13547,7 @@
         <v>5781.9000000000033</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2040</v>
       </c>
@@ -13559,64 +13564,64 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
   </sheetData>
@@ -13629,33 +13634,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABA40DF-0866-47B6-B050-3425248E9CA3}">
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="8"/>
+    <col min="4" max="4" width="12.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="8"/>
     <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="8"/>
     <col min="10" max="10" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="8"/>
-    <col min="13" max="13" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="8"/>
-    <col min="16" max="16" width="14.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="8"/>
+    <col min="11" max="11" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="8"/>
+    <col min="13" max="13" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" style="8"/>
+    <col min="16" max="16" width="14.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>65</v>
       </c>
@@ -13680,10 +13685,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -15927,13 +15932,13 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>159</v>
       </c>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>1</v>
       </c>
@@ -17879,7 +17884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>1</v>
       </c>
@@ -19822,7 +19827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>1</v>
       </c>
@@ -21774,21 +21779,21 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" customWidth="1"/>
+    <col min="19" max="21" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="24" t="s">
         <v>64</v>
@@ -21815,7 +21820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
@@ -21871,7 +21876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -21932,7 +21937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1970</v>
       </c>
@@ -21957,7 +21962,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="24"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1971</v>
       </c>
@@ -21985,7 +21990,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="24"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1972</v>
       </c>
@@ -22013,7 +22018,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="24"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1973</v>
       </c>
@@ -22041,7 +22046,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="24"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1974</v>
       </c>
@@ -22069,7 +22074,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="24"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1975</v>
       </c>
@@ -22097,7 +22102,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="24"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1976</v>
       </c>
@@ -22125,7 +22130,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="24"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1977</v>
       </c>
@@ -22153,7 +22158,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="24"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1978</v>
       </c>
@@ -22181,7 +22186,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="24"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1979</v>
       </c>
@@ -22209,7 +22214,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="24"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1980</v>
       </c>
@@ -22240,7 +22245,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="24"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1981</v>
       </c>
@@ -22271,7 +22276,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1982</v>
       </c>
@@ -22302,7 +22307,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1983</v>
       </c>
@@ -22336,7 +22341,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1984</v>
       </c>
@@ -22370,7 +22375,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1985</v>
       </c>
@@ -22404,7 +22409,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1986</v>
       </c>
@@ -22438,7 +22443,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1987</v>
       </c>
@@ -22472,7 +22477,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1988</v>
       </c>
@@ -22506,7 +22511,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1989</v>
       </c>
@@ -22540,7 +22545,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1990</v>
       </c>
@@ -22574,7 +22579,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1991</v>
       </c>
@@ -22608,7 +22613,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1992</v>
       </c>
@@ -22642,7 +22647,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="24"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1993</v>
       </c>
@@ -22676,7 +22681,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="24"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1994</v>
       </c>
@@ -22710,7 +22715,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="24"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1995</v>
       </c>
@@ -22744,7 +22749,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="24"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1996</v>
       </c>
@@ -22778,7 +22783,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="24"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1997</v>
       </c>
@@ -22812,7 +22817,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="24"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1998</v>
       </c>
@@ -22846,7 +22851,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="24"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1999</v>
       </c>
@@ -22880,7 +22885,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="24"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2000</v>
       </c>
@@ -22926,7 +22931,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2001</v>
       </c>
@@ -22972,7 +22977,7 @@
         <v>3.9889999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2002</v>
       </c>
@@ -23021,7 +23026,7 @@
         <v>4.0190000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2003</v>
       </c>
@@ -23070,7 +23075,7 @@
         <v>4.048</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2004</v>
       </c>
@@ -23119,7 +23124,7 @@
         <v>4.0780000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2005</v>
       </c>
@@ -23168,7 +23173,7 @@
         <v>4.1070000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2006</v>
       </c>
@@ -23217,7 +23222,7 @@
         <v>4.1369999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2007</v>
       </c>
@@ -23266,7 +23271,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2008</v>
       </c>
@@ -23315,7 +23320,7 @@
         <v>4.1959999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2009</v>
       </c>
@@ -23364,7 +23369,7 @@
         <v>4.226</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2010</v>
       </c>
@@ -23416,7 +23421,7 @@
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2011</v>
       </c>
@@ -23489,7 +23494,7 @@
         <v>4.3920000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2012</v>
       </c>
@@ -23562,7 +23567,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2013</v>
       </c>
@@ -23635,7 +23640,7 @@
         <v>4.4279999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
@@ -23708,7 +23713,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
@@ -23781,7 +23786,7 @@
         <v>4.4640000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2016</v>
       </c>
@@ -23854,7 +23859,7 @@
         <v>4.4820000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -23927,7 +23932,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2018</v>
       </c>
@@ -24000,7 +24005,7 @@
         <v>4.5179999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2019</v>
       </c>
@@ -24070,7 +24075,7 @@
         <v>4.5359999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2020</v>
       </c>
@@ -24143,7 +24148,7 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2021</v>
       </c>
@@ -24216,7 +24221,7 @@
         <v>4.6239999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2022</v>
       </c>
@@ -24289,7 +24294,7 @@
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2023</v>
       </c>
@@ -24362,7 +24367,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2024</v>
       </c>
@@ -24435,7 +24440,7 @@
         <v>4.6660000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2025</v>
       </c>
@@ -24508,7 +24513,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2026</v>
       </c>
@@ -24581,7 +24586,7 @@
         <v>4.6929999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2027</v>
       </c>
@@ -24654,7 +24659,7 @@
         <v>4.7069999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2028</v>
       </c>
@@ -24727,7 +24732,7 @@
         <v>4.7210000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2029</v>
       </c>
@@ -24800,7 +24805,7 @@
         <v>4.7350000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2030</v>
       </c>
@@ -24873,7 +24878,7 @@
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2031</v>
       </c>
@@ -24946,7 +24951,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2032</v>
       </c>
@@ -25019,7 +25024,7 @@
         <v>4.7839999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2033</v>
       </c>
@@ -25092,7 +25097,7 @@
         <v>4.8010000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2034</v>
       </c>
@@ -25165,7 +25170,7 @@
         <v>4.8179999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2035</v>
       </c>
@@ -25238,7 +25243,7 @@
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2036</v>
       </c>
@@ -25311,7 +25316,7 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2037</v>
       </c>
@@ -25384,7 +25389,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2038</v>
       </c>
@@ -25457,7 +25462,7 @@
         <v>4.8869999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2039</v>
       </c>
@@ -25530,7 +25535,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2040</v>
       </c>
@@ -25603,7 +25608,7 @@
         <v>4.9290000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2041</v>
       </c>
@@ -25673,7 +25678,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2042</v>
       </c>
@@ -25743,7 +25748,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2043</v>
       </c>
@@ -25813,7 +25818,7 @@
         <v>4.9909999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2044</v>
       </c>
@@ -25883,7 +25888,7 @@
         <v>5.0119999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2045</v>
       </c>
@@ -25953,7 +25958,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2046</v>
       </c>
@@ -26023,7 +26028,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2047</v>
       </c>
@@ -26093,7 +26098,7 @@
         <v>5.0739999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2048</v>
       </c>
@@ -26163,7 +26168,7 @@
         <v>5.0828783457369369</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2049</v>
       </c>
@@ -26233,7 +26238,7 @@
         <v>5.0907461095692259</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2050</v>
       </c>
@@ -26303,7 +26308,7 @@
         <v>5.0986138734015096</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2051</v>
       </c>
@@ -26367,7 +26372,7 @@
         <v>5.1035599247176044</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2052</v>
       </c>
@@ -26431,7 +26436,7 @@
         <v>5.1085059760336975</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2053</v>
       </c>
@@ -26495,7 +26500,7 @@
         <v>5.113452027349787</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2054</v>
       </c>
@@ -26559,7 +26564,7 @@
         <v>5.1183980786658809</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2055</v>
       </c>
@@ -26623,7 +26628,7 @@
         <v>5.123344129981974</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2056</v>
       </c>
@@ -26687,7 +26692,7 @@
         <v>5.1282901812980661</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2057</v>
       </c>
@@ -26751,7 +26756,7 @@
         <v>5.1332362326141592</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2058</v>
       </c>
@@ -26815,7 +26820,7 @@
         <v>5.1381822839302531</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2059</v>
       </c>
@@ -26879,7 +26884,7 @@
         <v>5.1431283352463462</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2060</v>
       </c>
@@ -26943,7 +26948,7 @@
         <v>5.1480743865624401</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -26970,13 +26975,13 @@
       <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>37</v>
       </c>
@@ -26997,7 +27002,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -27020,7 +27025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1970</v>
       </c>
@@ -27034,7 +27039,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1971</v>
       </c>
@@ -27051,7 +27056,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1972</v>
       </c>
@@ -27068,7 +27073,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1973</v>
       </c>
@@ -27085,7 +27090,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1974</v>
       </c>
@@ -27102,7 +27107,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1975</v>
       </c>
@@ -27119,7 +27124,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1976</v>
       </c>
@@ -27136,7 +27141,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1977</v>
       </c>
@@ -27153,7 +27158,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1978</v>
       </c>
@@ -27170,7 +27175,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1979</v>
       </c>
@@ -27187,7 +27192,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
@@ -27207,7 +27212,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1981</v>
       </c>
@@ -27227,7 +27232,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1982</v>
       </c>
@@ -27247,7 +27252,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1983</v>
       </c>
@@ -27270,7 +27275,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1984</v>
       </c>
@@ -27293,7 +27298,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1985</v>
       </c>
@@ -27316,7 +27321,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1986</v>
       </c>
@@ -27339,7 +27344,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1987</v>
       </c>
@@ -27362,7 +27367,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1988</v>
       </c>
@@ -27385,7 +27390,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1989</v>
       </c>
@@ -27408,7 +27413,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1990</v>
       </c>
@@ -27431,7 +27436,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1991</v>
       </c>
@@ -27454,7 +27459,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1992</v>
       </c>
@@ -27477,7 +27482,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1993</v>
       </c>
@@ -27500,7 +27505,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1994</v>
       </c>
@@ -27523,7 +27528,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1995</v>
       </c>
@@ -27546,7 +27551,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1996</v>
       </c>
@@ -27569,7 +27574,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1997</v>
       </c>
@@ -27592,7 +27597,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1998</v>
       </c>
@@ -27615,7 +27620,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1999</v>
       </c>
@@ -27638,7 +27643,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2000</v>
       </c>
@@ -27661,7 +27666,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -27684,7 +27689,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2002</v>
       </c>
@@ -27710,7 +27715,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2003</v>
       </c>
@@ -27736,7 +27741,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -27762,7 +27767,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2005</v>
       </c>
@@ -27788,7 +27793,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2006</v>
       </c>
@@ -27814,7 +27819,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2007</v>
       </c>
@@ -27840,7 +27845,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -27866,7 +27871,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2009</v>
       </c>
@@ -27892,7 +27897,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2010</v>
       </c>
@@ -27921,7 +27926,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2011</v>
       </c>
@@ -27947,7 +27952,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -27973,7 +27978,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2013</v>
       </c>
@@ -27999,7 +28004,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -28025,7 +28030,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -28051,7 +28056,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -28077,7 +28082,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -28103,7 +28108,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
@@ -28129,7 +28134,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2019</v>
       </c>
@@ -28152,7 +28157,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2020</v>
       </c>
@@ -28178,7 +28183,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2021</v>
       </c>
@@ -28204,7 +28209,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2022</v>
       </c>
@@ -28230,7 +28235,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2023</v>
       </c>
@@ -28256,7 +28261,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2024</v>
       </c>
@@ -28282,7 +28287,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2025</v>
       </c>
@@ -28308,7 +28313,7 @@
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2026</v>
       </c>
@@ -28334,7 +28339,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2027</v>
       </c>
@@ -28360,7 +28365,7 @@
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2028</v>
       </c>
@@ -28386,7 +28391,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2029</v>
       </c>
@@ -28412,7 +28417,7 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2030</v>
       </c>
@@ -28438,7 +28443,7 @@
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2031</v>
       </c>
@@ -28464,7 +28469,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2032</v>
       </c>
@@ -28490,7 +28495,7 @@
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2033</v>
       </c>
@@ -28516,7 +28521,7 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2034</v>
       </c>
@@ -28542,7 +28547,7 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2035</v>
       </c>
@@ -28568,7 +28573,7 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2036</v>
       </c>
@@ -28594,7 +28599,7 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2037</v>
       </c>
@@ -28620,7 +28625,7 @@
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2038</v>
       </c>
@@ -28646,7 +28651,7 @@
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2039</v>
       </c>
@@ -28672,7 +28677,7 @@
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2040</v>
       </c>
@@ -28698,7 +28703,7 @@
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2041</v>
       </c>
@@ -28721,7 +28726,7 @@
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2042</v>
       </c>
@@ -28744,7 +28749,7 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2043</v>
       </c>
@@ -28767,7 +28772,7 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2044</v>
       </c>
@@ -28790,7 +28795,7 @@
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2045</v>
       </c>
@@ -28813,7 +28818,7 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2046</v>
       </c>
@@ -28836,7 +28841,7 @@
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2047</v>
       </c>
@@ -28859,7 +28864,7 @@
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2048</v>
       </c>
@@ -28882,7 +28887,7 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2049</v>
       </c>
@@ -28905,7 +28910,7 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2050</v>
       </c>
@@ -28928,7 +28933,7 @@
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2051</v>
       </c>
@@ -28948,7 +28953,7 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2052</v>
       </c>
@@ -28968,7 +28973,7 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2053</v>
       </c>
@@ -28988,7 +28993,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2054</v>
       </c>
@@ -29008,7 +29013,7 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2055</v>
       </c>
@@ -29028,7 +29033,7 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2056</v>
       </c>
@@ -29048,7 +29053,7 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2057</v>
       </c>
@@ -29068,7 +29073,7 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2058</v>
       </c>
@@ -29088,7 +29093,7 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2059</v>
       </c>
@@ -29108,7 +29113,7 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2060</v>
       </c>
@@ -29128,7 +29133,7 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
   </sheetData>
@@ -29144,19 +29149,19 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.08984375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>73</v>
       </c>
@@ -29170,7 +29175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
@@ -29187,7 +29192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1970</v>
       </c>
@@ -29196,7 +29201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>1971</v>
       </c>
@@ -29213,7 +29218,7 @@
         <v>3393.3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1972</v>
       </c>
@@ -29228,7 +29233,7 @@
         <v>3456.6</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1973</v>
       </c>
@@ -29249,7 +29254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1974</v>
       </c>
@@ -29264,7 +29269,7 @@
         <v>3810.7999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1975</v>
       </c>
@@ -29292,7 +29297,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1976</v>
       </c>
@@ -29320,7 +29325,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1977</v>
       </c>
@@ -29348,7 +29353,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1978</v>
       </c>
@@ -29376,7 +29381,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1979</v>
       </c>
@@ -29391,7 +29396,7 @@
         <v>3877.7</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
@@ -29406,7 +29411,7 @@
         <v>3907.8999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1981</v>
       </c>
@@ -29421,7 +29426,7 @@
         <v>4113.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1982</v>
       </c>
@@ -29436,7 +29441,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1983</v>
       </c>
@@ -29451,7 +29456,7 @@
         <v>4076.6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1984</v>
       </c>
@@ -29466,7 +29471,7 @@
         <v>3977.2000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1985</v>
       </c>
@@ -29481,7 +29486,7 @@
         <v>4243.2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1986</v>
       </c>
@@ -29496,7 +29501,7 @@
         <v>4130.2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1987</v>
       </c>
@@ -29536,7 +29541,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1988</v>
       </c>
@@ -29576,7 +29581,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1989</v>
       </c>
@@ -29594,7 +29599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1990</v>
       </c>
@@ -29683,7 +29688,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1991</v>
       </c>
@@ -29772,7 +29777,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1992</v>
       </c>
@@ -29861,7 +29866,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1993</v>
       </c>
@@ -29973,7 +29978,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1994</v>
       </c>
@@ -30014,7 +30019,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>1995</v>
       </c>
@@ -30057,7 +30062,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1996</v>
       </c>
@@ -30152,7 +30157,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1997</v>
       </c>
@@ -30245,7 +30250,7 @@
         <v>648.9</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1998</v>
       </c>
@@ -30338,7 +30343,7 @@
         <v>3366.3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1999</v>
       </c>
@@ -30456,7 +30461,7 @@
         <v>4015.2000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2000</v>
       </c>
@@ -30471,7 +30476,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2001</v>
       </c>
@@ -30489,7 +30494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2002</v>
       </c>
@@ -30504,7 +30509,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2003</v>
       </c>
@@ -30519,7 +30524,7 @@
         <v>4217.7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -30534,7 +30539,7 @@
         <v>3905.8999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>2005</v>
       </c>
@@ -30549,7 +30554,7 @@
         <v>4039.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2006</v>
       </c>
@@ -30564,7 +30569,7 @@
         <v>4280.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2007</v>
       </c>
@@ -30579,7 +30584,7 @@
         <v>4549.1000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -30594,7 +30599,7 @@
         <v>4653.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2009</v>
       </c>
@@ -30609,7 +30614,7 @@
         <v>4583.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2010</v>
       </c>
@@ -30624,7 +30629,7 @@
         <v>4428.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2011</v>
       </c>
@@ -30639,7 +30644,7 @@
         <v>4486.3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -30654,7 +30659,7 @@
         <v>4823.1000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2013</v>
       </c>
@@ -30669,7 +30674,7 @@
         <v>4082.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -30684,7 +30689,7 @@
         <v>3918.7999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
@@ -30699,7 +30704,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -30714,7 +30719,7 @@
         <v>4365.8</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -30729,7 +30734,7 @@
         <v>4679.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
@@ -30744,7 +30749,7 @@
         <v>4817.2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2019</v>
       </c>
@@ -30752,7 +30757,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2020</v>
       </c>
@@ -30760,56 +30765,56 @@
       <c r="D53" s="7"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2021</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2022</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2023</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2024</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2025</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2026</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2027</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2028</v>
       </c>
@@ -30826,224 +30831,224 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2029</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2030</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2031</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2032</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2033</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2034</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2035</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2036</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2037</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2038</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2039</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2040</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2041</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2042</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2043</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2044</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2045</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2046</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2047</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2048</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2049</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2050</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2051</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2052</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2053</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2054</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2055</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2056</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2057</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2058</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2059</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2060</v>
       </c>
@@ -31068,12 +31073,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>54</v>
       </c>
@@ -31084,7 +31089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -31095,7 +31100,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -31106,7 +31111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -31114,7 +31119,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -31125,7 +31130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -31133,7 +31138,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -31141,7 +31146,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -31149,7 +31154,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -31157,7 +31162,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -31165,7 +31170,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -31173,7 +31178,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -31181,7 +31186,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -31189,7 +31194,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -31197,7 +31202,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -31205,7 +31210,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -31213,7 +31218,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -31221,7 +31226,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -31229,7 +31234,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -31237,7 +31242,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -31245,7 +31250,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -31253,7 +31258,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -31261,7 +31266,7 @@
         <v>4610</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -31269,7 +31274,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2022</v>
       </c>
@@ -31277,7 +31282,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2023</v>
       </c>
@@ -31285,7 +31290,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
@@ -31293,7 +31298,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -31301,7 +31306,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2026</v>
       </c>
@@ -31309,7 +31314,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2027</v>
       </c>
@@ -31317,7 +31322,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2028</v>
       </c>
@@ -31325,7 +31330,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2029</v>
       </c>
@@ -31333,7 +31338,7 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2030</v>
       </c>
@@ -31341,7 +31346,7 @@
         <v>4749</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2031</v>
       </c>
@@ -31349,7 +31354,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2032</v>
       </c>
@@ -31357,7 +31362,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2033</v>
       </c>
@@ -31365,7 +31370,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2034</v>
       </c>
@@ -31373,7 +31378,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2035</v>
       </c>
@@ -31381,7 +31386,7 @@
         <v>4836</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2036</v>
       </c>
@@ -31389,7 +31394,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2037</v>
       </c>
@@ -31397,7 +31402,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2038</v>
       </c>
@@ -31405,7 +31410,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2039</v>
       </c>
@@ -31413,7 +31418,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2040</v>
       </c>
@@ -31421,7 +31426,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2041</v>
       </c>
@@ -31429,7 +31434,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2042</v>
       </c>
@@ -31437,7 +31442,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2043</v>
       </c>
@@ -31445,7 +31450,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2044</v>
       </c>
@@ -31453,7 +31458,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2045</v>
       </c>
@@ -31461,7 +31466,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2046</v>
       </c>
@@ -31469,7 +31474,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2047</v>
       </c>
@@ -31477,7 +31482,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2048</v>
       </c>
@@ -31485,7 +31490,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2049</v>
       </c>
@@ -31493,7 +31498,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2050</v>
       </c>
@@ -31501,52 +31506,52 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2051</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2052</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2053</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2054</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2055</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2056</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2057</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2058</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2059</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2060</v>
       </c>
@@ -31569,33 +31574,33 @@
       <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.21875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
@@ -31627,7 +31632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -31668,7 +31673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -31709,7 +31714,7 @@
         <v>4847</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2003</v>
       </c>
@@ -31750,7 +31755,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2004</v>
       </c>
@@ -31791,7 +31796,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -31832,7 +31837,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -31873,7 +31878,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -31914,7 +31919,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -31955,7 +31960,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -31996,7 +32001,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -32037,7 +32042,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -32078,7 +32083,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -32119,7 +32124,7 @@
         <v>5303</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -32160,7 +32165,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -32201,7 +32206,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -32242,7 +32247,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -32283,7 +32288,7 @@
         <v>5353</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -32324,7 +32329,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -32365,7 +32370,7 @@
         <v>5378</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2019</v>
       </c>
@@ -32406,7 +32411,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -32447,7 +32452,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2021</v>
       </c>
@@ -32488,7 +32493,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2022</v>
       </c>
@@ -32529,7 +32534,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2023</v>
       </c>
@@ -32570,7 +32575,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2024</v>
       </c>
@@ -32611,7 +32616,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2025</v>
       </c>
@@ -32652,7 +32657,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2026</v>
       </c>
@@ -32693,7 +32698,7 @@
         <v>5514</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2027</v>
       </c>
@@ -32734,7 +32739,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2028</v>
       </c>
@@ -32775,7 +32780,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2029</v>
       </c>
@@ -32816,7 +32821,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2030</v>
       </c>
@@ -32857,7 +32862,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2031</v>
       </c>
@@ -32898,7 +32903,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2032</v>
       </c>
@@ -32939,7 +32944,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2033</v>
       </c>
@@ -32980,7 +32985,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2034</v>
       </c>
@@ -33021,7 +33026,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2035</v>
       </c>
@@ -33062,7 +33067,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2036</v>
       </c>
@@ -33103,7 +33108,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2037</v>
       </c>
@@ -33144,7 +33149,7 @@
         <v>5683</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2038</v>
       </c>
@@ -33185,7 +33190,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2039</v>
       </c>
@@ -33226,7 +33231,7 @@
         <v>5706</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2040</v>
       </c>
@@ -33267,7 +33272,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2041</v>
       </c>
@@ -33308,7 +33313,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2042</v>
       </c>
@@ -33349,7 +33354,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2043</v>
       </c>
@@ -33390,7 +33395,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2044</v>
       </c>
@@ -33431,7 +33436,7 @@
         <v>5784</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2045</v>
       </c>
@@ -33472,7 +33477,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2046</v>
       </c>
@@ -33513,7 +33518,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2047</v>
       </c>
@@ -33554,7 +33559,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2048</v>
       </c>
@@ -33595,7 +33600,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2049</v>
       </c>
@@ -33636,7 +33641,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2050</v>
       </c>
@@ -33677,52 +33682,52 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2051</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2052</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2053</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2054</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2055</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2056</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2057</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2058</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2059</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2060</v>
       </c>
@@ -33742,15 +33747,15 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="51" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>66</v>
       </c>
@@ -33764,7 +33769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>71</v>
       </c>
@@ -33778,7 +33783,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -33794,7 +33799,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -33810,7 +33815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2012</v>
       </c>
@@ -33826,7 +33831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -33863,7 +33868,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -33900,7 +33905,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -33937,7 +33942,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -33974,7 +33979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2017</v>
       </c>
@@ -34013,7 +34018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2018</v>
       </c>
@@ -34052,7 +34057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2019</v>
       </c>
@@ -34068,7 +34073,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -34084,7 +34089,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2021</v>
       </c>
@@ -34103,7 +34108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2022</v>
       </c>
@@ -34122,7 +34127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2023</v>
       </c>
@@ -34138,7 +34143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2024</v>
       </c>
@@ -34154,7 +34159,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2025</v>
       </c>
@@ -34170,7 +34175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2026</v>
       </c>
@@ -34186,7 +34191,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2027</v>
       </c>
@@ -34202,7 +34207,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2028</v>
       </c>
@@ -34218,7 +34223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2029</v>
       </c>
@@ -34234,7 +34239,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2030</v>
       </c>
@@ -34250,7 +34255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2031</v>
       </c>
@@ -34266,7 +34271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2032</v>
       </c>
@@ -34282,7 +34287,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2033</v>
       </c>
@@ -34298,7 +34303,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2034</v>
       </c>
@@ -34314,7 +34319,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2035</v>
       </c>
@@ -34330,7 +34335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2036</v>
       </c>
@@ -34346,7 +34351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2037</v>
       </c>
@@ -34362,7 +34367,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2038</v>
       </c>
@@ -34378,7 +34383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2039</v>
       </c>
@@ -34394,7 +34399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2040</v>
       </c>
@@ -34410,7 +34415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2041</v>
       </c>
@@ -34426,7 +34431,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2042</v>
       </c>
@@ -34442,7 +34447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2043</v>
       </c>
@@ -34458,7 +34463,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2044</v>
       </c>
@@ -34474,7 +34479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2045</v>
       </c>
@@ -34490,7 +34495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2046</v>
       </c>
@@ -34506,7 +34511,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2047</v>
       </c>
@@ -34522,7 +34527,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2048</v>
       </c>
@@ -34538,7 +34543,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2049</v>
       </c>
@@ -34554,7 +34559,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2050</v>
       </c>
@@ -34570,7 +34575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2051</v>
       </c>
@@ -34586,7 +34591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2052</v>
       </c>
@@ -34602,7 +34607,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2053</v>
       </c>
@@ -34618,7 +34623,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2054</v>
       </c>
@@ -34634,7 +34639,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2055</v>
       </c>
@@ -34650,7 +34655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2056</v>
       </c>
@@ -34666,7 +34671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2057</v>
       </c>
@@ -34682,7 +34687,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2058</v>
       </c>
@@ -34698,7 +34703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2059</v>
       </c>
@@ -34714,7 +34719,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2060</v>
       </c>
@@ -34748,14 +34753,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>73</v>
       </c>
@@ -34766,7 +34771,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>80</v>
       </c>
@@ -34781,7 +34786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -34793,7 +34798,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
@@ -34821,7 +34826,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -34852,7 +34857,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2023</v>
       </c>
@@ -34882,7 +34887,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -34917,7 +34922,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2025</v>
       </c>
@@ -34949,7 +34954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2026</v>
       </c>
@@ -34962,7 +34967,7 @@
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2027</v>
       </c>
@@ -34974,7 +34979,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2028</v>
       </c>
@@ -34989,7 +34994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2029</v>
       </c>
@@ -35004,7 +35009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2030</v>
       </c>
@@ -35016,7 +35021,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2031</v>
       </c>
@@ -35028,7 +35033,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2032</v>
       </c>
@@ -35040,7 +35045,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2033</v>
       </c>
@@ -35052,7 +35057,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2034</v>
       </c>
@@ -35064,7 +35069,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2035</v>
       </c>
@@ -35076,7 +35081,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2036</v>
       </c>
@@ -35088,7 +35093,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2037</v>
       </c>
@@ -35100,7 +35105,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2038</v>
       </c>
@@ -35112,7 +35117,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2039</v>
       </c>
@@ -35124,7 +35129,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2040</v>
       </c>
@@ -35136,7 +35141,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2041</v>
       </c>
@@ -35148,7 +35153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2042</v>
       </c>
@@ -35160,7 +35165,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2043</v>
       </c>
@@ -35172,7 +35177,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2044</v>
       </c>
@@ -35184,7 +35189,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2045</v>
       </c>
@@ -35196,7 +35201,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2046</v>
       </c>
@@ -35208,7 +35213,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2047</v>
       </c>
@@ -35220,7 +35225,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2048</v>
       </c>
@@ -35232,7 +35237,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2049</v>
       </c>
@@ -35244,7 +35249,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2050</v>
       </c>
@@ -35256,7 +35261,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2051</v>
       </c>
@@ -35268,7 +35273,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2052</v>
       </c>
@@ -35280,7 +35285,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2053</v>
       </c>
@@ -35292,7 +35297,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2054</v>
       </c>
@@ -35304,7 +35309,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2055</v>
       </c>
@@ -35316,7 +35321,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2056</v>
       </c>
@@ -35328,7 +35333,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2057</v>
       </c>
@@ -35340,7 +35345,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2058</v>
       </c>
@@ -35352,7 +35357,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2059</v>
       </c>
@@ -35364,7 +35369,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2060</v>
       </c>
@@ -35393,23 +35398,23 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -35426,7 +35431,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>72</v>
@@ -35441,7 +35446,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1980</v>
       </c>
@@ -35461,7 +35466,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1981</v>
       </c>
@@ -35484,7 +35489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1982</v>
       </c>
@@ -35506,7 +35511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1983</v>
       </c>
@@ -35531,7 +35536,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1984</v>
       </c>
@@ -35556,7 +35561,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -35581,7 +35586,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1986</v>
       </c>
@@ -35606,7 +35611,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1987</v>
       </c>
@@ -35622,7 +35627,7 @@
         <v>4518.1999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1988</v>
       </c>
@@ -35638,7 +35643,7 @@
         <v>4594.7999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1989</v>
       </c>
@@ -35657,7 +35662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1990</v>
       </c>
@@ -35677,7 +35682,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1991</v>
       </c>
@@ -35693,7 +35698,7 @@
         <v>4804.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1992</v>
       </c>
@@ -35709,7 +35714,7 @@
         <v>4861.3999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1993</v>
       </c>
@@ -35725,7 +35730,7 @@
         <v>4918.0999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1994</v>
       </c>
@@ -35741,7 +35746,7 @@
         <v>4974.7999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1995</v>
       </c>
@@ -35757,7 +35762,7 @@
         <v>5031.4999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1996</v>
       </c>
@@ -35773,7 +35778,7 @@
         <v>5088.1999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1997</v>
       </c>
@@ -35789,7 +35794,7 @@
         <v>5144.8999999999987</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1998</v>
       </c>
@@ -35805,7 +35810,7 @@
         <v>5201.5999999999985</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1999</v>
       </c>
@@ -35821,7 +35826,7 @@
         <v>5258.2999999999984</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -35841,7 +35846,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
@@ -35857,7 +35862,7 @@
         <v>5347.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2002</v>
       </c>
@@ -35873,7 +35878,7 @@
         <v>5380.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -35889,7 +35894,7 @@
         <v>5413.4000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2004</v>
       </c>
@@ -35905,7 +35910,7 @@
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
@@ -35921,7 +35926,7 @@
         <v>5479.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2006</v>
       </c>
@@ -35937,7 +35942,7 @@
         <v>5511.8000000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2007</v>
       </c>
@@ -35953,7 +35958,7 @@
         <v>5544.6000000000013</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2008</v>
       </c>
@@ -35969,7 +35974,7 @@
         <v>5577.4000000000015</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2009</v>
       </c>
@@ -35985,7 +35990,7 @@
         <v>5610.2000000000016</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2010</v>
       </c>
@@ -36001,154 +36006,154 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="3"/>
     </row>
   </sheetData>

--- a/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions and Evaporation.xlsx
+++ b/UpperBasinConsumptiveUses/(1) Upper Colorado River Basin Depletions and Evaporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9C29B-42FC-43EE-83ED-53E232889F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC917C33-D325-4845-B110-22FA9EF9DADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="14" r:id="rId1"/>
@@ -9154,7 +9154,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{11B20905-5AD1-46D3-BB6C-D0E37E3469F5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9165,7 +9165,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9849,8 +9849,40 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Actual use</a:t>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Consumptive Use &amp; Losses Reports</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -10931,10 +10963,65 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Actual CRSP Reservoir Evaporation</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BOR</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Consumptive Use &amp; Losses Reports</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US" sz="1200" b="1"/>
@@ -13629,7 +13716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABA40DF-0866-47B6-B050-3425248E9CA3}">
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
